--- a/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-4thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-4thInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,6 +273,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,7 +645,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>195.49</v>
+        <v>195.54</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -649,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>195.49</v>
+        <v>195.54</v>
       </c>
       <c r="F3" s="6">
         <v>89.33</v>
@@ -899,7 +907,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,13 +1049,13 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>841.23</v>
+        <v>841.22</v>
       </c>
       <c r="G4" s="7">
-        <v>3322.06</v>
+        <v>3322.07</v>
       </c>
       <c r="H4" s="6">
-        <v>46.49</v>
+        <v>46.5</v>
       </c>
       <c r="I4" s="6">
         <v>0</v>
@@ -1086,13 +1094,13 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>838.1</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2483.96</v>
+        <v>838.07</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2484</v>
       </c>
       <c r="H5" s="6">
-        <v>49.62</v>
+        <v>49.65</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1131,13 +1139,13 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>863.24</v>
+        <v>863.23</v>
       </c>
       <c r="G6" s="7">
-        <v>1620.72</v>
+        <v>1620.77</v>
       </c>
       <c r="H6" s="6">
-        <v>24.48</v>
+        <v>24.49</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1179,7 +1187,7 @@
         <v>871.21</v>
       </c>
       <c r="G7" s="6">
-        <v>749.51</v>
+        <v>749.56</v>
       </c>
       <c r="H7" s="6">
         <v>16.510000000000002</v>
@@ -1221,7 +1229,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>749.51</v>
+        <v>749.56</v>
       </c>
       <c r="G8" s="6">
         <v>0</v>
@@ -1236,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="6">
-        <v>756.89</v>
+        <v>756.94</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -1250,7 +1258,7 @@
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <v>756.89</v>
+        <v>756.94</v>
       </c>
     </row>
   </sheetData>
@@ -1260,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,7 +1313,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>696</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>30</v>
@@ -1317,19 +1325,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="6">
-        <v>54.8</v>
+        <v>51.92</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7">
-        <v>5145.6099999999997</v>
+        <v>5145.8900000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>695</v>
+        <v>206</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>30</v>
@@ -1341,7 +1349,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="6">
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1353,7 +1361,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>692</v>
+        <v>202</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>30</v>
@@ -1365,7 +1373,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="6">
-        <v>2.68</v>
+        <v>0.03</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -1377,7 +1385,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>688</v>
+        <v>198</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>30</v>
@@ -1401,7 +1409,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>694</v>
+        <v>209</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>30</v>
@@ -1410,22 +1418,22 @@
         <v>42063</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="6">
-        <v>46.43</v>
+        <v>49.59</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6">
-        <v>0</v>
+      <c r="J6" s="7">
+        <v>5093.97</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>687</v>
+        <v>208</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>30</v>
@@ -1434,58 +1442,58 @@
         <v>42063</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="6">
-        <v>46.43</v>
+        <v>0.24</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="7">
-        <v>5090.8100000000004</v>
+      <c r="J7" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>685</v>
+        <v>204</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="6">
-        <v>44.38</v>
+        <v>0.24</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="7">
-        <v>5044.38</v>
+      <c r="J8" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>684</v>
+        <v>200</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="8">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="6">
-        <v>44.38</v>
+        <v>2.68</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1497,25 +1505,97 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>683</v>
+        <v>196</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="8">
+        <v>42063</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6">
+        <v>46.43</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>195</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>194</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8">
+        <v>42035</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="6">
+        <v>44.38</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>193</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="8">
         <v>42009</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E13" s="5">
         <v>5000</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
         <v>5000</v>
       </c>
     </row>
@@ -1529,12 +1609,14 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="10"/>
+    <col min="5" max="6" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1583,7 +1665,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -1614,7 +1696,7 @@
       </c>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>40</v>
       </c>
@@ -1645,7 +1727,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>40</v>
       </c>
@@ -1678,9 +1760,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/19/waivecharge/117" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/117"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/19/waivecharge/118" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/118"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/19/waivecharge/119" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/19/waivecharge/119"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/7/waivecharge/19" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/19"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/7/waivecharge/20" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/20"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/7/waivecharge/21" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/7/waivecharge/21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-4thInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5039-CompondingPenalityCharge-BeforeGracePeriod-AfterGracePeriod-4thInstallment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction1" sheetId="1" r:id="rId1"/>
@@ -906,13 +906,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1608,7 +1609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
